--- a/FinalPhase/gantt chart.xlsx
+++ b/FinalPhase/gantt chart.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soma\Desktop\GP\GP\FinalPhase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="8520"/>
   </bookViews>
@@ -142,48 +147,26 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -195,13 +178,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,6 +192,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -492,6 +476,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -499,6 +490,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -714,11 +711,11 @@
         </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="100"/>
-        <c:axId val="74505216"/>
-        <c:axId val="115930624"/>
+        <c:axId val="1328523760"/>
+        <c:axId val="1421658816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74505216"/>
+        <c:axId val="1328523760"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -728,7 +725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115930624"/>
+        <c:crossAx val="1421658816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -736,7 +733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115930624"/>
+        <c:axId val="1421658816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42583"/>
@@ -748,7 +745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74505216"/>
+        <c:crossAx val="1328523760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25"/>
@@ -844,7 +841,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -879,7 +876,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N6" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1102,13 +1099,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1127,7 +1124,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>42583</v>
       </c>
       <c r="C3">
@@ -1233,7 +1230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1241,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3">
@@ -1255,8 +1252,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3">
@@ -1266,8 +1263,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3">
@@ -1277,8 +1274,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3">
@@ -1288,8 +1285,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3">
@@ -1299,8 +1296,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3">
@@ -1310,8 +1307,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3">
@@ -1321,8 +1318,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3">
@@ -1332,8 +1329,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="3">
@@ -1343,8 +1340,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="3">
@@ -1354,8 +1351,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="3">
@@ -1365,8 +1362,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3">
@@ -1376,8 +1373,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="3">
@@ -1387,8 +1384,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="3">
@@ -1398,8 +1395,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="3">
@@ -1409,8 +1406,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="3">
@@ -1420,8 +1417,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="3">
@@ -1431,8 +1428,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="3">
@@ -1442,8 +1439,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="3">
@@ -1453,8 +1450,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
